--- a/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>CABGY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5126400</v>
+        <v>2083700</v>
       </c>
       <c r="E8" s="3">
-        <v>2895500</v>
+        <v>4875500</v>
       </c>
       <c r="F8" s="3">
-        <v>4648200</v>
+        <v>2753800</v>
       </c>
       <c r="G8" s="3">
-        <v>1905900</v>
+        <v>4420700</v>
       </c>
       <c r="H8" s="3">
-        <v>4358300</v>
+        <v>1812700</v>
       </c>
       <c r="I8" s="3">
-        <v>2531700</v>
+        <v>4145000</v>
       </c>
       <c r="J8" s="3">
+        <v>2407800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4229100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1899000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>2739900</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2439300</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2254300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2605800</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2319900</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2144000</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>2172800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2386500</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2208900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2104000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2269700</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2100700</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2056300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-42000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>25800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>42100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>4240800</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3924300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3654600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4033200</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3732200</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3475800</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>3553900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>885600</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>723900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>703700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>842200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>688500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>669200</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>675200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>1453800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1361700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="G21" s="3">
+        <v>985200</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1295100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1000600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>37400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>37300</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>35400</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>36300</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>34500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>814700</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>685600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>680200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>774800</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>652100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>646900</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>646000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>155200</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>170300</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>159600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>147600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>162000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>151800</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>168000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>659500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>515300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>520600</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>627200</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>490100</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>495100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>478100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>560200</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>444000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>465700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>532800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>422300</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>442900</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>418800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>33400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>560200</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>444000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>465700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>532800</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>422300</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>442900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>418800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>560200</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>444000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>465700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>532800</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>422300</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>442900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>418800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,22 +1619,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1224000</v>
+        <v>1164100</v>
       </c>
       <c r="E41" s="3">
-        <v>1228700</v>
+        <v>1168500</v>
       </c>
       <c r="F41" s="3">
-        <v>1187200</v>
+        <v>1129100</v>
       </c>
       <c r="G41" s="3">
-        <v>1138800</v>
+        <v>1083000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,22 +1681,25 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1208100</v>
+        <v>1149000</v>
       </c>
       <c r="E43" s="3">
-        <v>1587000</v>
+        <v>1509400</v>
       </c>
       <c r="F43" s="3">
-        <v>809900</v>
+        <v>770200</v>
       </c>
       <c r="G43" s="3">
-        <v>1394300</v>
+        <v>1326000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
@@ -1620,22 +1713,25 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>790800</v>
+        <v>752100</v>
       </c>
       <c r="E44" s="3">
-        <v>800200</v>
+        <v>761000</v>
       </c>
       <c r="F44" s="3">
-        <v>676700</v>
+        <v>643600</v>
       </c>
       <c r="G44" s="3">
-        <v>718900</v>
+        <v>683700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
@@ -1649,19 +1745,22 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>136300</v>
+        <v>129600</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="3">
-        <v>112800</v>
+        <v>107300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
@@ -1678,22 +1777,25 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3359200</v>
+        <v>3194800</v>
       </c>
       <c r="E46" s="3">
-        <v>3615900</v>
+        <v>3438900</v>
       </c>
       <c r="F46" s="3">
-        <v>2786500</v>
+        <v>2650100</v>
       </c>
       <c r="G46" s="3">
-        <v>3252000</v>
+        <v>3092800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
@@ -1707,22 +1809,25 @@
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>916400</v>
+        <v>871500</v>
       </c>
       <c r="E47" s="3">
-        <v>994400</v>
+        <v>945700</v>
       </c>
       <c r="F47" s="3">
-        <v>835100</v>
+        <v>794200</v>
       </c>
       <c r="G47" s="3">
-        <v>1056500</v>
+        <v>1004800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
@@ -1736,22 +1841,25 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3909000</v>
+        <v>3717700</v>
       </c>
       <c r="E48" s="3">
-        <v>3918100</v>
+        <v>3726300</v>
       </c>
       <c r="F48" s="3">
-        <v>3857800</v>
+        <v>3669000</v>
       </c>
       <c r="G48" s="3">
-        <v>3893900</v>
+        <v>3703300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
@@ -1765,22 +1873,25 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10044600</v>
+        <v>9552900</v>
       </c>
       <c r="E49" s="3">
-        <v>9962600</v>
+        <v>9475000</v>
       </c>
       <c r="F49" s="3">
-        <v>9690500</v>
+        <v>9216200</v>
       </c>
       <c r="G49" s="3">
-        <v>9923000</v>
+        <v>9437300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +1969,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>310000</v>
+        <v>294800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>259200</v>
+        <v>246500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,22 +2033,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18539100</v>
+        <v>17631700</v>
       </c>
       <c r="E54" s="3">
-        <v>18491000</v>
+        <v>17585900</v>
       </c>
       <c r="F54" s="3">
-        <v>17429100</v>
+        <v>16576000</v>
       </c>
       <c r="G54" s="3">
-        <v>18125300</v>
+        <v>17238100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,22 +2095,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3028000</v>
+        <v>2879800</v>
       </c>
       <c r="E57" s="3">
-        <v>3143600</v>
+        <v>2989700</v>
       </c>
       <c r="F57" s="3">
-        <v>2434800</v>
+        <v>2315600</v>
       </c>
       <c r="G57" s="3">
-        <v>2601100</v>
+        <v>2473800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -1994,22 +2125,25 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>904600</v>
+        <v>860400</v>
       </c>
       <c r="E58" s="3">
-        <v>242600</v>
+        <v>230700</v>
       </c>
       <c r="F58" s="3">
-        <v>140700</v>
+        <v>133800</v>
       </c>
       <c r="G58" s="3">
-        <v>321100</v>
+        <v>305400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2023,22 +2157,25 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2416400</v>
+        <v>2298100</v>
       </c>
       <c r="E59" s="3">
-        <v>1901000</v>
+        <v>1807900</v>
       </c>
       <c r="F59" s="3">
-        <v>1597700</v>
+        <v>1519500</v>
       </c>
       <c r="G59" s="3">
-        <v>1912800</v>
+        <v>1819200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
@@ -2052,22 +2189,25 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6349000</v>
+        <v>6038300</v>
       </c>
       <c r="E60" s="3">
-        <v>5287100</v>
+        <v>5028400</v>
       </c>
       <c r="F60" s="3">
-        <v>4173200</v>
+        <v>3968900</v>
       </c>
       <c r="G60" s="3">
-        <v>4835000</v>
+        <v>4598400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>5</v>
@@ -2081,22 +2221,25 @@
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3337900</v>
+        <v>3174600</v>
       </c>
       <c r="E61" s="3">
-        <v>4165400</v>
+        <v>3961500</v>
       </c>
       <c r="F61" s="3">
-        <v>4296700</v>
+        <v>4086400</v>
       </c>
       <c r="G61" s="3">
-        <v>4177600</v>
+        <v>3973100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2110,22 +2253,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700100</v>
+        <v>1616900</v>
       </c>
       <c r="E62" s="3">
-        <v>2414200</v>
+        <v>2296100</v>
       </c>
       <c r="F62" s="3">
-        <v>2598500</v>
+        <v>2471300</v>
       </c>
       <c r="G62" s="3">
-        <v>3041600</v>
+        <v>2892700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,22 +2381,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12093400</v>
+        <v>11501500</v>
       </c>
       <c r="E66" s="3">
-        <v>12507700</v>
+        <v>11895500</v>
       </c>
       <c r="F66" s="3">
-        <v>11663000</v>
+        <v>11092200</v>
       </c>
       <c r="G66" s="3">
-        <v>12411400</v>
+        <v>11803900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,22 +2555,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11566900</v>
+        <v>11000800</v>
       </c>
       <c r="E72" s="3">
-        <v>11335900</v>
+        <v>10781100</v>
       </c>
       <c r="F72" s="3">
-        <v>11319900</v>
+        <v>10765800</v>
       </c>
       <c r="G72" s="3">
-        <v>10714800</v>
+        <v>10190400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,22 +2683,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6445700</v>
+        <v>6130200</v>
       </c>
       <c r="E76" s="3">
-        <v>5983300</v>
+        <v>5690500</v>
       </c>
       <c r="F76" s="3">
-        <v>5766100</v>
+        <v>5483900</v>
       </c>
       <c r="G76" s="3">
-        <v>5713900</v>
+        <v>5434200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>5</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>560200</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>444000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>465700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>532800</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>422300</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>442900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>418800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>643400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>643400</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="G83" s="3">
+        <v>297700</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>611900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>320100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
+      <c r="E89" s="3">
+        <v>1849800</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1603000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="G89" s="3">
+        <v>932500</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1524600</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>749900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>-588900</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-644800</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="G91" s="3">
+        <v>-252200</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-613300</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-363900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3">
+        <v>-611500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-861200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="G94" s="3">
+        <v>-195700</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-819100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-289100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2988,28 +3222,31 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-444600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-444600</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-431500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-453700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-453700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
+      <c r="E100" s="3">
+        <v>-1248300</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-265500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="G100" s="3">
+        <v>-700600</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-252500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-73200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
+      <c r="E101" s="3">
+        <v>63900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-64300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="G101" s="3">
+        <v>22200</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
+      <c r="E102" s="3">
+        <v>53900</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>412100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="G102" s="3">
+        <v>58300</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>391900</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>370800</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>CABGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2083700</v>
+        <v>4753800</v>
       </c>
       <c r="E8" s="3">
-        <v>4875500</v>
+        <v>2003100</v>
       </c>
       <c r="F8" s="3">
-        <v>2753800</v>
+        <v>4214400</v>
       </c>
       <c r="G8" s="3">
-        <v>4420700</v>
+        <v>2647200</v>
       </c>
       <c r="H8" s="3">
-        <v>1812700</v>
+        <v>3845200</v>
       </c>
       <c r="I8" s="3">
-        <v>4145000</v>
+        <v>1742500</v>
       </c>
       <c r="J8" s="3">
+        <v>3984500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2407800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4229100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1899000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2605800</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2319900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2144000</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>2554300</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2226600</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2001600</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2061000</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>2172800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2269700</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2100700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2001000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>2199500</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1987800</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1843600</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1923500</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>2056300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +907,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-39900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>24600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>40000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4033200</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3732200</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3475800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>4004300</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3325800</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3232500</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3341200</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>3553900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>842200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>688500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>669200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>749500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>888600</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>612700</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>643300</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>675200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1076,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>14000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1453800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>985200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1295100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>999300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1426300</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>873700</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1244900</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1000600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>35600</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>35400</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>36300</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>34200</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>33900</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>34500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>774800</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>652100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>646900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>679800</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>823700</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>577300</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>621900</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>646000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>147600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>162000</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>151800</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>177200</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>148300</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>168000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>627200</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>490100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>495100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>530300</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>646500</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>429000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>476000</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>478100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>532800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>422300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>442900</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>448200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>555800</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>363800</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>425800</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>418800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,31 +1389,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+        <v>-1155800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-43600</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>42100</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>31800</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>30700</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>532800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>422300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>442900</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>-707600</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>512200</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>406000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>425800</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>418800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>532800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>422300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>442900</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>-707600</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>512200</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>406000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>425800</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>418800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,25 +1706,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1164100</v>
+        <v>1781900</v>
       </c>
       <c r="E41" s="3">
-        <v>1168500</v>
+        <v>1119000</v>
       </c>
       <c r="F41" s="3">
-        <v>1129100</v>
+        <v>1123300</v>
       </c>
       <c r="G41" s="3">
-        <v>1083000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
+        <v>1085400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1041100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,25 +1774,28 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1149000</v>
+        <v>1475900</v>
       </c>
       <c r="E43" s="3">
-        <v>1509400</v>
+        <v>1104500</v>
       </c>
       <c r="F43" s="3">
-        <v>770200</v>
+        <v>1450900</v>
       </c>
       <c r="G43" s="3">
-        <v>1326000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+        <v>740400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1274700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -1716,25 +1809,28 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>752100</v>
+        <v>760900</v>
       </c>
       <c r="E44" s="3">
-        <v>761000</v>
+        <v>723000</v>
       </c>
       <c r="F44" s="3">
-        <v>643600</v>
+        <v>731600</v>
       </c>
       <c r="G44" s="3">
-        <v>683700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
+        <v>618600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>657300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -1748,22 +1844,25 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>107300</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
+        <v>2215900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>124600</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>103100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
@@ -1780,25 +1879,28 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3194800</v>
+        <v>6234600</v>
       </c>
       <c r="E46" s="3">
-        <v>3438900</v>
+        <v>3071100</v>
       </c>
       <c r="F46" s="3">
-        <v>2650100</v>
+        <v>3305800</v>
       </c>
       <c r="G46" s="3">
-        <v>3092800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
+        <v>2547600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2973100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
@@ -1812,25 +1914,28 @@
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>871500</v>
+        <v>1054000</v>
       </c>
       <c r="E47" s="3">
-        <v>945700</v>
+        <v>837800</v>
       </c>
       <c r="F47" s="3">
-        <v>794200</v>
+        <v>909100</v>
       </c>
       <c r="G47" s="3">
-        <v>1004800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+        <v>763500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>965900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1844,25 +1949,28 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3717700</v>
+        <v>3174200</v>
       </c>
       <c r="E48" s="3">
-        <v>3726300</v>
+        <v>3573800</v>
       </c>
       <c r="F48" s="3">
-        <v>3669000</v>
+        <v>3582100</v>
       </c>
       <c r="G48" s="3">
-        <v>3703300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
+        <v>3527000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3559900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -1876,25 +1984,28 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9552900</v>
+        <v>6738800</v>
       </c>
       <c r="E49" s="3">
-        <v>9475000</v>
+        <v>9183200</v>
       </c>
       <c r="F49" s="3">
-        <v>9216200</v>
+        <v>9108200</v>
       </c>
       <c r="G49" s="3">
-        <v>9437300</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+        <v>8859400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>9072000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,22 +2089,25 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>294800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>246500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>283400</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>237000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,25 +2159,28 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17631700</v>
+        <v>17201600</v>
       </c>
       <c r="E54" s="3">
-        <v>17585900</v>
+        <v>16949200</v>
       </c>
       <c r="F54" s="3">
-        <v>16576000</v>
+        <v>16905200</v>
       </c>
       <c r="G54" s="3">
-        <v>17238100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
+        <v>15934400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>16570900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,25 +2226,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2879800</v>
+        <v>3268700</v>
       </c>
       <c r="E57" s="3">
-        <v>2989700</v>
+        <v>2768300</v>
       </c>
       <c r="F57" s="3">
-        <v>2315600</v>
+        <v>2874000</v>
       </c>
       <c r="G57" s="3">
-        <v>2473800</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
+        <v>2226000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2378000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2128,25 +2259,28 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>860400</v>
+        <v>1343600</v>
       </c>
       <c r="E58" s="3">
-        <v>230700</v>
+        <v>827100</v>
       </c>
       <c r="F58" s="3">
-        <v>133800</v>
+        <v>221800</v>
       </c>
       <c r="G58" s="3">
-        <v>305400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>128600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>293600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2160,25 +2294,28 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2298100</v>
+        <v>3187000</v>
       </c>
       <c r="E59" s="3">
-        <v>1807900</v>
+        <v>2209200</v>
       </c>
       <c r="F59" s="3">
-        <v>1519500</v>
+        <v>1737900</v>
       </c>
       <c r="G59" s="3">
-        <v>1819200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
+        <v>1460700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1748800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -2192,25 +2329,28 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6038300</v>
+        <v>7799300</v>
       </c>
       <c r="E60" s="3">
-        <v>5028400</v>
+        <v>5804500</v>
       </c>
       <c r="F60" s="3">
-        <v>3968900</v>
+        <v>4833700</v>
       </c>
       <c r="G60" s="3">
-        <v>4598400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
+        <v>3815300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4420400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
@@ -2224,25 +2364,28 @@
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3174600</v>
+        <v>3045000</v>
       </c>
       <c r="E61" s="3">
-        <v>3961500</v>
+        <v>3051700</v>
       </c>
       <c r="F61" s="3">
-        <v>4086400</v>
+        <v>3808200</v>
       </c>
       <c r="G61" s="3">
-        <v>3973100</v>
+        <v>3928200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>3819300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2256,25 +2399,28 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1616900</v>
+        <v>1300700</v>
       </c>
       <c r="E62" s="3">
-        <v>2296100</v>
+        <v>1554300</v>
       </c>
       <c r="F62" s="3">
-        <v>2471300</v>
+        <v>2207200</v>
       </c>
       <c r="G62" s="3">
-        <v>2892700</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+        <v>2375600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2780800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,25 +2539,28 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11501500</v>
+        <v>12720700</v>
       </c>
       <c r="E66" s="3">
-        <v>11895500</v>
+        <v>11056300</v>
       </c>
       <c r="F66" s="3">
-        <v>11092200</v>
+        <v>11435000</v>
       </c>
       <c r="G66" s="3">
-        <v>11803900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
+        <v>10662800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>11347000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,25 +2729,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11000800</v>
+        <v>9192800</v>
       </c>
       <c r="E72" s="3">
-        <v>10781100</v>
+        <v>10575000</v>
       </c>
       <c r="F72" s="3">
-        <v>10765800</v>
+        <v>10363800</v>
       </c>
       <c r="G72" s="3">
-        <v>10190400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
+        <v>10349100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>9795900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,25 +2869,28 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6130200</v>
+        <v>4480900</v>
       </c>
       <c r="E76" s="3">
-        <v>5690500</v>
+        <v>5892900</v>
       </c>
       <c r="F76" s="3">
-        <v>5483900</v>
+        <v>5470200</v>
       </c>
       <c r="G76" s="3">
-        <v>5434200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
+        <v>5271600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>5223900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>532800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>422300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>442900</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>-707600</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>512200</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>406000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>425800</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>418800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>643400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>297700</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>611900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>285400</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>618500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>286200</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>588200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>320100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1849800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>932500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1524600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>1123800</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1778200</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>896400</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1465600</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>749900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-588900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-252200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-613300</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-215400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-523400</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-222500</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-589500</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-363900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-611500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-195700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-819100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-145600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-545400</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-169400</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-787400</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-289100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3446,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-454500</v>
       </c>
       <c r="E96" s="3">
-        <v>-444600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-427400</v>
       </c>
       <c r="G96" s="3">
-        <v>-444600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-427400</v>
       </c>
       <c r="I96" s="3">
-        <v>-431500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-414800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-453700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-1248300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-700600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-252500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-301500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1199600</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-672600</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-242700</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-73200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>63900</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-61100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>61400</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-16700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>53900</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>58300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>391900</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>729200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>51800</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>56100</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>376700</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>370800</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
   <si>
     <t>CABGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4753800</v>
+        <v>2777700</v>
       </c>
       <c r="E8" s="3">
-        <v>2003100</v>
+        <v>4865100</v>
       </c>
       <c r="F8" s="3">
-        <v>4214400</v>
+        <v>2050000</v>
       </c>
       <c r="G8" s="3">
-        <v>2647200</v>
+        <v>4313100</v>
       </c>
       <c r="H8" s="3">
-        <v>3845200</v>
+        <v>2439300</v>
       </c>
       <c r="I8" s="3">
-        <v>1742500</v>
+        <v>3935200</v>
       </c>
       <c r="J8" s="3">
+        <v>1620100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3984500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2407800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4229100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1899000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>2554300</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2226600</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2001600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2614100</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2278800</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2048500</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>2061000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>2172800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2199500</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1987800</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1843600</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2034300</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1886800</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1923500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2056300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +927,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>114400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>26600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>117100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>27200</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>38500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>4004300</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3325800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3232500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4098000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3403700</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3308100</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>3341200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>3553900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>749500</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>888600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>612700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>767100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>909400</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>627100</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>643300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>675200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-30700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>13400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>999300</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>1426300</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>873700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>894200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1244900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1000600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>34100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>34200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>33900</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
         <v>34900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>34900</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>34500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>679800</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>823700</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>577300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>695700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>843000</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>590900</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>621900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>646000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>149500</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>177200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>148300</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>153000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>181300</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>151800</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>145900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>168000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>530300</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>646500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>429000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>542700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>661700</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>439100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>476000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>478100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>448200</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>555800</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>363800</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>458700</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>568800</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>372400</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>425800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>418800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,34 +1450,37 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-1155800</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-43600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>42100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1182800</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>43100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>35700</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>30700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>31400</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-707600</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>512200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>406000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-724100</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>524200</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>415500</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>425800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>418800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-707600</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>512200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>406000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-724100</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>524200</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>415500</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>425800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>418800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,25 +1793,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1781900</v>
+        <v>1823600</v>
       </c>
       <c r="E41" s="3">
-        <v>1119000</v>
+        <v>1145200</v>
       </c>
       <c r="F41" s="3">
-        <v>1123300</v>
+        <v>1149600</v>
       </c>
       <c r="G41" s="3">
-        <v>1085400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1041100</v>
+        <v>1110800</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,25 +1867,28 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1475900</v>
+        <v>1510400</v>
       </c>
       <c r="E43" s="3">
-        <v>1104500</v>
+        <v>1130400</v>
       </c>
       <c r="F43" s="3">
-        <v>1450900</v>
+        <v>1484900</v>
       </c>
       <c r="G43" s="3">
-        <v>740400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1274700</v>
+        <v>757800</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -1812,25 +1905,28 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>760900</v>
+        <v>778800</v>
       </c>
       <c r="E44" s="3">
-        <v>723000</v>
+        <v>739900</v>
       </c>
       <c r="F44" s="3">
-        <v>731600</v>
+        <v>748700</v>
       </c>
       <c r="G44" s="3">
-        <v>618600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>657300</v>
+        <v>633100</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -1847,22 +1943,25 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2215900</v>
+        <v>2267800</v>
       </c>
       <c r="E45" s="3">
-        <v>124600</v>
+        <v>127500</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>103100</v>
+        <v>105500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
@@ -1882,25 +1981,28 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6234600</v>
+        <v>6380600</v>
       </c>
       <c r="E46" s="3">
-        <v>3071100</v>
+        <v>3143000</v>
       </c>
       <c r="F46" s="3">
-        <v>3305800</v>
+        <v>3383200</v>
       </c>
       <c r="G46" s="3">
-        <v>2547600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2973100</v>
+        <v>2607200</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
@@ -1917,25 +2019,28 @@
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1054000</v>
+        <v>1078600</v>
       </c>
       <c r="E47" s="3">
-        <v>837800</v>
+        <v>857400</v>
       </c>
       <c r="F47" s="3">
-        <v>909100</v>
+        <v>930400</v>
       </c>
       <c r="G47" s="3">
-        <v>763500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>965900</v>
+        <v>781400</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1952,25 +2057,28 @@
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3174200</v>
+        <v>3248600</v>
       </c>
       <c r="E48" s="3">
-        <v>3573800</v>
+        <v>3657400</v>
       </c>
       <c r="F48" s="3">
-        <v>3582100</v>
+        <v>3665900</v>
       </c>
       <c r="G48" s="3">
-        <v>3527000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3559900</v>
+        <v>3609500</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -1987,25 +2095,28 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6738800</v>
+        <v>6896500</v>
       </c>
       <c r="E49" s="3">
-        <v>9183200</v>
+        <v>9398200</v>
       </c>
       <c r="F49" s="3">
-        <v>9108200</v>
+        <v>9321500</v>
       </c>
       <c r="G49" s="3">
-        <v>8859400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>9072000</v>
+        <v>9066900</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2101,13 +2221,13 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>283400</v>
+        <v>290000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>237000</v>
+        <v>242500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,25 +2285,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17201600</v>
+        <v>17604400</v>
       </c>
       <c r="E54" s="3">
-        <v>16949200</v>
+        <v>17346100</v>
       </c>
       <c r="F54" s="3">
-        <v>16905200</v>
+        <v>17301000</v>
       </c>
       <c r="G54" s="3">
-        <v>15934400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>16570900</v>
+        <v>16307500</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,25 +2357,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3268700</v>
+        <v>3345200</v>
       </c>
       <c r="E57" s="3">
-        <v>2768300</v>
+        <v>2833100</v>
       </c>
       <c r="F57" s="3">
-        <v>2874000</v>
+        <v>2941300</v>
       </c>
       <c r="G57" s="3">
-        <v>2226000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2378000</v>
+        <v>2278100</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2262,25 +2393,28 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1343600</v>
+        <v>1375100</v>
       </c>
       <c r="E58" s="3">
-        <v>827100</v>
+        <v>846400</v>
       </c>
       <c r="F58" s="3">
-        <v>221800</v>
+        <v>227000</v>
       </c>
       <c r="G58" s="3">
-        <v>128600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>293600</v>
+        <v>131600</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2297,25 +2431,28 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3187000</v>
+        <v>3261600</v>
       </c>
       <c r="E59" s="3">
-        <v>2209200</v>
+        <v>2260900</v>
       </c>
       <c r="F59" s="3">
-        <v>1737900</v>
+        <v>1778600</v>
       </c>
       <c r="G59" s="3">
-        <v>1460700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1748800</v>
+        <v>1494900</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -2332,25 +2469,28 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7799300</v>
+        <v>7981900</v>
       </c>
       <c r="E60" s="3">
-        <v>5804500</v>
+        <v>5940500</v>
       </c>
       <c r="F60" s="3">
-        <v>4833700</v>
+        <v>4946900</v>
       </c>
       <c r="G60" s="3">
-        <v>3815300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4420400</v>
+        <v>3904600</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
@@ -2367,25 +2507,28 @@
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3045000</v>
+        <v>3116300</v>
       </c>
       <c r="E61" s="3">
-        <v>3051700</v>
+        <v>3123100</v>
       </c>
       <c r="F61" s="3">
-        <v>3808200</v>
+        <v>3897400</v>
       </c>
       <c r="G61" s="3">
-        <v>3928200</v>
+        <v>4020200</v>
       </c>
       <c r="H61" s="3">
-        <v>3819300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2402,25 +2545,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300700</v>
+        <v>1331200</v>
       </c>
       <c r="E62" s="3">
-        <v>1554300</v>
+        <v>1590700</v>
       </c>
       <c r="F62" s="3">
-        <v>2207200</v>
+        <v>2258900</v>
       </c>
       <c r="G62" s="3">
-        <v>2375600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2780800</v>
+        <v>2431200</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,25 +2697,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12720700</v>
+        <v>13018600</v>
       </c>
       <c r="E66" s="3">
-        <v>11056300</v>
+        <v>11315200</v>
       </c>
       <c r="F66" s="3">
-        <v>11435000</v>
+        <v>11702800</v>
       </c>
       <c r="G66" s="3">
-        <v>10662800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>11347000</v>
+        <v>10912500</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,25 +2903,28 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9192800</v>
+        <v>9408100</v>
       </c>
       <c r="E72" s="3">
-        <v>10575000</v>
+        <v>10822600</v>
       </c>
       <c r="F72" s="3">
-        <v>10363800</v>
+        <v>10606400</v>
       </c>
       <c r="G72" s="3">
-        <v>10349100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>9795900</v>
+        <v>10591400</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,25 +3055,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4480900</v>
+        <v>4585800</v>
       </c>
       <c r="E76" s="3">
-        <v>5892900</v>
+        <v>6030900</v>
       </c>
       <c r="F76" s="3">
-        <v>5470200</v>
+        <v>5598300</v>
       </c>
       <c r="G76" s="3">
-        <v>5271600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>5223900</v>
+        <v>5395000</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-707600</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>512200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>406000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-724100</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>524200</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>415500</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>425800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>418800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>285400</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>618500</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>286200</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>292900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>588200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>320100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1123800</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>1778200</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>896400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>917400</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1465600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>749900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-215400</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-523400</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-222500</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-227700</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-589500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-363900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-145600</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-545400</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-169400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-173300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-787400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-289100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,43 +3680,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-454500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-427400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-427400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-437400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-414800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-453700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-301500</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>-1199600</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>-672600</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-688300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-242700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-73200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>52400</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>61400</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-58700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-16700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>729200</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>51800</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>56100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>57400</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>376700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>370800</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
   <si>
     <t>CABGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2777700</v>
+        <v>4951100</v>
       </c>
       <c r="E8" s="3">
-        <v>4865100</v>
+        <v>2877800</v>
       </c>
       <c r="F8" s="3">
-        <v>2050000</v>
+        <v>5040600</v>
       </c>
       <c r="G8" s="3">
-        <v>4313100</v>
+        <v>2123900</v>
       </c>
       <c r="H8" s="3">
-        <v>2439300</v>
+        <v>4468600</v>
       </c>
       <c r="I8" s="3">
-        <v>3935200</v>
+        <v>2527300</v>
       </c>
       <c r="J8" s="3">
+        <v>4077200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1620100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3984500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2407800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4229100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1899000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2614100</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2278800</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2048500</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>2723400</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2708300</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2360900</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2122300</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>2061000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>2172800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2251000</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2034300</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1886800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>2227700</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2332200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2107700</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1954800</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1923500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2056300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>117100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>27200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>121300</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>38500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4098000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3403700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3308100</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>4226300</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4245800</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3526400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3427400</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>3341200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>3553900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>767100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>909400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>627100</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>724800</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>794800</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>942200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>649700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>643300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>675200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1143,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-31400</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>13400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1169,140 +1205,152 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>894200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>926400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1244900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1000600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>36100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>36300</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>34900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>34900</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>34500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>695700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>843000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>590900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>695600</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>720800</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>873400</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>612200</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>621900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>646000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>153000</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>181300</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>151800</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>158600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>149000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>145900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>168000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>542700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>661700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>439100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>601400</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>562300</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>724400</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>454900</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>476000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>478100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>458700</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>568800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>372400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>521900</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>475200</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>628100</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>385800</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>425800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>418800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,37 +1510,40 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-1182800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-44600</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>43100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1225500</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>44700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>36500</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>31400</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>37800</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>32600</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-13400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-724100</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>524200</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>415500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>599100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-750200</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>543100</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>430400</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>425800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>418800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-724100</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>524200</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>415500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>599100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-750200</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>543100</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>430400</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>425800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>418800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,25 +1879,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1823600</v>
+        <v>1160800</v>
       </c>
       <c r="E41" s="3">
-        <v>1145200</v>
+        <v>1889400</v>
       </c>
       <c r="F41" s="3">
-        <v>1149600</v>
+        <v>1186500</v>
       </c>
       <c r="G41" s="3">
-        <v>1110800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
+        <v>1191100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1150800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,25 +1959,28 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1510400</v>
+        <v>1107200</v>
       </c>
       <c r="E43" s="3">
-        <v>1130400</v>
+        <v>1564900</v>
       </c>
       <c r="F43" s="3">
-        <v>1484900</v>
+        <v>1171200</v>
       </c>
       <c r="G43" s="3">
-        <v>757800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+        <v>1538500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>785100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -1908,25 +2000,28 @@
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>778800</v>
+        <v>813100</v>
       </c>
       <c r="E44" s="3">
-        <v>739900</v>
+        <v>806800</v>
       </c>
       <c r="F44" s="3">
-        <v>748700</v>
+        <v>766600</v>
       </c>
       <c r="G44" s="3">
-        <v>633100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
+        <v>775700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>656000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -1946,25 +2041,28 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2267800</v>
+        <v>1789200</v>
       </c>
       <c r="E45" s="3">
-        <v>127500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>105500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
+        <v>2349600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>132100</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>109400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -1984,25 +2082,28 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6380600</v>
+        <v>4870200</v>
       </c>
       <c r="E46" s="3">
-        <v>3143000</v>
+        <v>6610700</v>
       </c>
       <c r="F46" s="3">
-        <v>3383200</v>
+        <v>3256400</v>
       </c>
       <c r="G46" s="3">
-        <v>2607200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
+        <v>3505200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2701200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
@@ -2022,25 +2123,28 @@
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1078600</v>
+        <v>918500</v>
       </c>
       <c r="E47" s="3">
-        <v>857400</v>
+        <v>1117500</v>
       </c>
       <c r="F47" s="3">
-        <v>930400</v>
+        <v>888300</v>
       </c>
       <c r="G47" s="3">
-        <v>781400</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+        <v>964000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>809500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -2060,25 +2164,28 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3248600</v>
+        <v>3367200</v>
       </c>
       <c r="E48" s="3">
-        <v>3657400</v>
+        <v>3365700</v>
       </c>
       <c r="F48" s="3">
-        <v>3665900</v>
+        <v>3789300</v>
       </c>
       <c r="G48" s="3">
-        <v>3609500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
+        <v>3798200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3739700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -2098,25 +2205,28 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6896500</v>
+        <v>6999500</v>
       </c>
       <c r="E49" s="3">
-        <v>9398200</v>
+        <v>7145300</v>
       </c>
       <c r="F49" s="3">
-        <v>9321500</v>
+        <v>9737100</v>
       </c>
       <c r="G49" s="3">
-        <v>9066900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+        <v>9657700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>9393900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,25 +2328,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>290000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>242500</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>246100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>300500</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>251300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,25 +2410,28 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17604400</v>
+        <v>16401500</v>
       </c>
       <c r="E54" s="3">
-        <v>17346100</v>
+        <v>18239300</v>
       </c>
       <c r="F54" s="3">
-        <v>17301000</v>
+        <v>17971700</v>
       </c>
       <c r="G54" s="3">
-        <v>16307500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
+        <v>17925000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>16895600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,25 +2487,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3345200</v>
+        <v>3116600</v>
       </c>
       <c r="E57" s="3">
-        <v>2833100</v>
+        <v>3465800</v>
       </c>
       <c r="F57" s="3">
-        <v>2941300</v>
+        <v>2935300</v>
       </c>
       <c r="G57" s="3">
-        <v>2278100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
+        <v>3047300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2360200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2396,25 +2526,28 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1375100</v>
+        <v>822100</v>
       </c>
       <c r="E58" s="3">
-        <v>846400</v>
+        <v>1424700</v>
       </c>
       <c r="F58" s="3">
-        <v>227000</v>
+        <v>876900</v>
       </c>
       <c r="G58" s="3">
-        <v>131600</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>235200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>136400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2434,25 +2567,28 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3261600</v>
+        <v>2993200</v>
       </c>
       <c r="E59" s="3">
-        <v>2260900</v>
+        <v>3379200</v>
       </c>
       <c r="F59" s="3">
-        <v>1778600</v>
+        <v>2342500</v>
       </c>
       <c r="G59" s="3">
-        <v>1494900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
+        <v>1842800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1548800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -2472,25 +2608,28 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7981900</v>
+        <v>6931800</v>
       </c>
       <c r="E60" s="3">
-        <v>5940500</v>
+        <v>8269800</v>
       </c>
       <c r="F60" s="3">
-        <v>4946900</v>
+        <v>6154700</v>
       </c>
       <c r="G60" s="3">
-        <v>3904600</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
+        <v>5125300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4045400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
@@ -2510,25 +2649,28 @@
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3116300</v>
+        <v>3251400</v>
       </c>
       <c r="E61" s="3">
-        <v>3123100</v>
+        <v>3228700</v>
       </c>
       <c r="F61" s="3">
-        <v>3897400</v>
+        <v>3235800</v>
       </c>
       <c r="G61" s="3">
-        <v>4020200</v>
+        <v>4037900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>4165200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2548,25 +2690,28 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1331200</v>
+        <v>1280800</v>
       </c>
       <c r="E62" s="3">
-        <v>1590700</v>
+        <v>1379200</v>
       </c>
       <c r="F62" s="3">
-        <v>2258900</v>
+        <v>1648100</v>
       </c>
       <c r="G62" s="3">
-        <v>2431200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+        <v>2340300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2518900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,25 +2854,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13018600</v>
+        <v>11865000</v>
       </c>
       <c r="E66" s="3">
-        <v>11315200</v>
+        <v>13488100</v>
       </c>
       <c r="F66" s="3">
-        <v>11702800</v>
+        <v>11723300</v>
       </c>
       <c r="G66" s="3">
-        <v>10912500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
+        <v>12124800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>11306000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,25 +3076,28 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9408100</v>
+        <v>10064300</v>
       </c>
       <c r="E72" s="3">
-        <v>10822600</v>
+        <v>9747400</v>
       </c>
       <c r="F72" s="3">
-        <v>10606400</v>
+        <v>11212900</v>
       </c>
       <c r="G72" s="3">
-        <v>10591400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
+        <v>10988900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>10973400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,25 +3240,28 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4585800</v>
+        <v>4536500</v>
       </c>
       <c r="E76" s="3">
-        <v>6030900</v>
+        <v>4751200</v>
       </c>
       <c r="F76" s="3">
-        <v>5598300</v>
+        <v>6248400</v>
       </c>
       <c r="G76" s="3">
-        <v>5395000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
+        <v>5800200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>5589600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-724100</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>524200</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>415500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>599100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-750200</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>543100</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>430400</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>425800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>418800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,26 +3449,29 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
-        <v>292900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>303500</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>588200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>320100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3479,26 +3695,29 @@
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
-        <v>917400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>950500</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1465600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>749900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3533,26 +3753,29 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>-227700</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-235900</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-589500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-363900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3647,26 +3876,29 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>-173300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-179600</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-787400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-289100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3702,25 +3935,28 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-437400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-453200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-414800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-453700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3853,26 +4098,29 @@
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
-        <v>-688300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-713100</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-242700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-73200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3891,26 +4139,29 @@
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3">
-        <v>21800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-58700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-16700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3929,22 +4180,25 @@
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
-        <v>57400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>376700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>370800</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="92">
   <si>
     <t>CABGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4951100</v>
+        <v>2372700</v>
       </c>
       <c r="E8" s="3">
-        <v>2877800</v>
+        <v>5035700</v>
       </c>
       <c r="F8" s="3">
-        <v>5040600</v>
+        <v>2927000</v>
       </c>
       <c r="G8" s="3">
-        <v>2123900</v>
+        <v>5126700</v>
       </c>
       <c r="H8" s="3">
-        <v>4468600</v>
+        <v>2160200</v>
       </c>
       <c r="I8" s="3">
-        <v>2527300</v>
+        <v>4545000</v>
       </c>
       <c r="J8" s="3">
+        <v>2570500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4077200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1620100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3984500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2407800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4229100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1899000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>2723400</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2708300</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2360900</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2770000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2754600</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2401300</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>2122300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>2061000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>2172800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2227700</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2332200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2107700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2265800</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2372100</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2143700</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1954800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1923500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2056300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>121300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-34100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>123400</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>28200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>38500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>4226300</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4245800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3526400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4298500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4318400</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3586700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>3427400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>3341200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>3553900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>724800</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>794800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>942200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>737200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>808300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>958300</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>649700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>643300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>675200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>11500</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-37800</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>13400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>1354500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>1077600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="3">
+        <v>1538100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>926400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1244900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1000600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>40700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>36300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>36700</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>36900</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>36000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>34900</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>34500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>695600</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>720800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>873400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>707500</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>733100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>888300</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>612200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>621900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>646000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>94300</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>158600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>149000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>161300</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>151600</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>157300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>145900</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>168000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>601400</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>562300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>724400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>611600</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>571900</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>736700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>454900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>476000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>478100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>521900</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>475200</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>628100</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>530800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>483400</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>638800</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>385800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>425800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>418800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,40 +1571,43 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>77200</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-1225500</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-85000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>78500</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-1246400</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>44700</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>37800</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>32600</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>38500</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-13400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>599100</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-750200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>543100</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>609300</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-763100</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>552300</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>430400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>425800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>418800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>599100</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-750200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>543100</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>609300</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-763100</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>552300</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>430400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>425800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>418800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,25 +1966,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1160800</v>
+        <v>1180600</v>
       </c>
       <c r="E41" s="3">
-        <v>1889400</v>
+        <v>1921700</v>
       </c>
       <c r="F41" s="3">
-        <v>1186500</v>
+        <v>1206800</v>
       </c>
       <c r="G41" s="3">
-        <v>1191100</v>
+        <v>1211400</v>
       </c>
       <c r="H41" s="3">
-        <v>1150800</v>
+        <v>1170500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,25 +2052,28 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1107200</v>
+        <v>1126100</v>
       </c>
       <c r="E43" s="3">
-        <v>1564900</v>
+        <v>1591700</v>
       </c>
       <c r="F43" s="3">
-        <v>1171200</v>
+        <v>1191200</v>
       </c>
       <c r="G43" s="3">
-        <v>1538500</v>
+        <v>1564800</v>
       </c>
       <c r="H43" s="3">
-        <v>785100</v>
+        <v>798500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -2003,25 +2096,28 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>813100</v>
+        <v>827000</v>
       </c>
       <c r="E44" s="3">
-        <v>806800</v>
+        <v>820600</v>
       </c>
       <c r="F44" s="3">
-        <v>766600</v>
+        <v>779700</v>
       </c>
       <c r="G44" s="3">
-        <v>775700</v>
+        <v>789000</v>
       </c>
       <c r="H44" s="3">
-        <v>656000</v>
+        <v>667200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -2044,25 +2140,28 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1789200</v>
+        <v>1819700</v>
       </c>
       <c r="E45" s="3">
-        <v>2349600</v>
+        <v>2389700</v>
       </c>
       <c r="F45" s="3">
-        <v>132100</v>
+        <v>134400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>109400</v>
+        <v>111200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -2085,25 +2184,28 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4870200</v>
+        <v>4953400</v>
       </c>
       <c r="E46" s="3">
-        <v>6610700</v>
+        <v>6723700</v>
       </c>
       <c r="F46" s="3">
-        <v>3256400</v>
+        <v>3312000</v>
       </c>
       <c r="G46" s="3">
-        <v>3505200</v>
+        <v>3565100</v>
       </c>
       <c r="H46" s="3">
-        <v>2701200</v>
+        <v>2747400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
@@ -2126,25 +2228,28 @@
       <c r="O46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>918500</v>
+        <v>934200</v>
       </c>
       <c r="E47" s="3">
-        <v>1117500</v>
+        <v>1136600</v>
       </c>
       <c r="F47" s="3">
-        <v>888300</v>
+        <v>903500</v>
       </c>
       <c r="G47" s="3">
-        <v>964000</v>
+        <v>980400</v>
       </c>
       <c r="H47" s="3">
-        <v>809500</v>
+        <v>823400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -2167,25 +2272,28 @@
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3367200</v>
+        <v>3424700</v>
       </c>
       <c r="E48" s="3">
-        <v>3365700</v>
+        <v>3423200</v>
       </c>
       <c r="F48" s="3">
-        <v>3789300</v>
+        <v>3854100</v>
       </c>
       <c r="G48" s="3">
-        <v>3798200</v>
+        <v>3863100</v>
       </c>
       <c r="H48" s="3">
-        <v>3739700</v>
+        <v>3803600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -2208,25 +2316,28 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6999500</v>
+        <v>7119100</v>
       </c>
       <c r="E49" s="3">
-        <v>7145300</v>
+        <v>7267400</v>
       </c>
       <c r="F49" s="3">
-        <v>9737100</v>
+        <v>9903500</v>
       </c>
       <c r="G49" s="3">
-        <v>9657700</v>
+        <v>9822700</v>
       </c>
       <c r="H49" s="3">
-        <v>9393900</v>
+        <v>9554400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,25 +2448,28 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>246100</v>
+        <v>250400</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>300500</v>
+        <v>305600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>251300</v>
+        <v>255600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,25 +2536,28 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16401500</v>
+        <v>16681800</v>
       </c>
       <c r="E54" s="3">
-        <v>18239300</v>
+        <v>18551000</v>
       </c>
       <c r="F54" s="3">
-        <v>17971700</v>
+        <v>18278800</v>
       </c>
       <c r="G54" s="3">
-        <v>17925000</v>
+        <v>18231300</v>
       </c>
       <c r="H54" s="3">
-        <v>16895600</v>
+        <v>17184400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,25 +2618,26 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3116600</v>
+        <v>3169900</v>
       </c>
       <c r="E57" s="3">
-        <v>3465800</v>
+        <v>3525100</v>
       </c>
       <c r="F57" s="3">
-        <v>2935300</v>
+        <v>2985500</v>
       </c>
       <c r="G57" s="3">
-        <v>3047300</v>
+        <v>3099400</v>
       </c>
       <c r="H57" s="3">
-        <v>2360200</v>
+        <v>2400600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2529,25 +2660,28 @@
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>822100</v>
+        <v>836100</v>
       </c>
       <c r="E58" s="3">
-        <v>1424700</v>
+        <v>1449000</v>
       </c>
       <c r="F58" s="3">
-        <v>876900</v>
+        <v>891900</v>
       </c>
       <c r="G58" s="3">
-        <v>235200</v>
+        <v>239200</v>
       </c>
       <c r="H58" s="3">
-        <v>136400</v>
+        <v>138700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2570,25 +2704,28 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2993200</v>
+        <v>3044300</v>
       </c>
       <c r="E59" s="3">
-        <v>3379200</v>
+        <v>3437000</v>
       </c>
       <c r="F59" s="3">
-        <v>2342500</v>
+        <v>2382500</v>
       </c>
       <c r="G59" s="3">
-        <v>1842800</v>
+        <v>1874300</v>
       </c>
       <c r="H59" s="3">
-        <v>1548800</v>
+        <v>1575300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -2611,25 +2748,28 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6931800</v>
+        <v>7050300</v>
       </c>
       <c r="E60" s="3">
-        <v>8269800</v>
+        <v>8411100</v>
       </c>
       <c r="F60" s="3">
-        <v>6154700</v>
+        <v>6259900</v>
       </c>
       <c r="G60" s="3">
-        <v>5125300</v>
+        <v>5212900</v>
       </c>
       <c r="H60" s="3">
-        <v>4045400</v>
+        <v>4114600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
@@ -2652,25 +2792,28 @@
       <c r="O60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3251400</v>
+        <v>3307000</v>
       </c>
       <c r="E61" s="3">
-        <v>3228700</v>
+        <v>3283800</v>
       </c>
       <c r="F61" s="3">
-        <v>3235800</v>
+        <v>3291100</v>
       </c>
       <c r="G61" s="3">
-        <v>4037900</v>
+        <v>4106900</v>
       </c>
       <c r="H61" s="3">
-        <v>4165200</v>
+        <v>4236400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2693,25 +2836,28 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1280800</v>
+        <v>1302700</v>
       </c>
       <c r="E62" s="3">
-        <v>1379200</v>
+        <v>1402800</v>
       </c>
       <c r="F62" s="3">
-        <v>1648100</v>
+        <v>1676300</v>
       </c>
       <c r="G62" s="3">
-        <v>2340300</v>
+        <v>2380300</v>
       </c>
       <c r="H62" s="3">
-        <v>2518900</v>
+        <v>2562000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,25 +3012,28 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11865000</v>
+        <v>12067800</v>
       </c>
       <c r="E66" s="3">
-        <v>13488100</v>
+        <v>13718600</v>
       </c>
       <c r="F66" s="3">
-        <v>11723300</v>
+        <v>11923600</v>
       </c>
       <c r="G66" s="3">
-        <v>12124800</v>
+        <v>12332000</v>
       </c>
       <c r="H66" s="3">
-        <v>11306000</v>
+        <v>11499200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,25 +3250,28 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10064300</v>
+        <v>10236300</v>
       </c>
       <c r="E72" s="3">
-        <v>9747400</v>
+        <v>9914000</v>
       </c>
       <c r="F72" s="3">
-        <v>11212900</v>
+        <v>11404500</v>
       </c>
       <c r="G72" s="3">
-        <v>10988900</v>
+        <v>11176700</v>
       </c>
       <c r="H72" s="3">
-        <v>10973400</v>
+        <v>11161000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,25 +3426,28 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4536500</v>
+        <v>4614000</v>
       </c>
       <c r="E76" s="3">
-        <v>4751200</v>
+        <v>4832400</v>
       </c>
       <c r="F76" s="3">
-        <v>6248400</v>
+        <v>6355200</v>
       </c>
       <c r="G76" s="3">
-        <v>5800200</v>
+        <v>5899300</v>
       </c>
       <c r="H76" s="3">
-        <v>5589600</v>
+        <v>5685100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>599100</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-750200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>543100</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>609300</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-763100</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>552300</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>430400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>425800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>418800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>605600</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>307800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="I83" s="3">
+        <v>667000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>303500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>588200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>320100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
+      <c r="E89" s="3">
+        <v>1872800</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
+      <c r="G89" s="3">
+        <v>1212000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="I89" s="3">
+        <v>1917600</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>950500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1465600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>749900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-2412000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1606000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2244000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1659000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-235900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-589500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-363900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3">
+        <v>-443300</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>-157100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="I94" s="3">
+        <v>-588200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-179600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-787400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-289100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3923,40 +4157,43 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-490200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-490200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-460900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-453200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-414800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-453700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
+      <c r="E100" s="3">
+        <v>-1440400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
+      <c r="G100" s="3">
+        <v>-325100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="I100" s="3">
+        <v>-1293700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-713100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-242700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-73200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
+      <c r="E101" s="3">
+        <v>-98800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
+      <c r="G101" s="3">
+        <v>56600</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="I101" s="3">
+        <v>66200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>22600</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-58700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-16700</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
+      <c r="E102" s="3">
+        <v>-109600</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
+      <c r="G102" s="3">
+        <v>786400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="I102" s="3">
+        <v>55800</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>59400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>376700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>370800</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2372700</v>
+        <v>2386900</v>
       </c>
       <c r="E8" s="3">
-        <v>5035700</v>
+        <v>5066000</v>
       </c>
       <c r="F8" s="3">
-        <v>2927000</v>
+        <v>2944600</v>
       </c>
       <c r="G8" s="3">
-        <v>5126700</v>
+        <v>5157500</v>
       </c>
       <c r="H8" s="3">
-        <v>2160200</v>
+        <v>2173200</v>
       </c>
       <c r="I8" s="3">
-        <v>4545000</v>
+        <v>4572300</v>
       </c>
       <c r="J8" s="3">
-        <v>2570500</v>
+        <v>2586000</v>
       </c>
       <c r="K8" s="3">
         <v>4077200</v>
@@ -784,19 +784,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>2770000</v>
+        <v>2786600</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>2754600</v>
+        <v>2771200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="3">
-        <v>2401300</v>
+        <v>2415700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -828,19 +828,19 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>2265800</v>
+        <v>2279400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>2372100</v>
+        <v>2386300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="3">
-        <v>2143700</v>
+        <v>2156600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -984,13 +984,13 @@
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>123400</v>
+        <v>124100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>-34700</v>
+        <v>-34900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1081,19 +1081,19 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>4298500</v>
+        <v>4324400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>4318400</v>
+        <v>4344300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>3586700</v>
+        <v>3608300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
@@ -1125,19 +1125,19 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>737200</v>
+        <v>741600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>808300</v>
+        <v>813200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>958300</v>
+        <v>964100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
@@ -1187,19 +1187,19 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-38500</v>
+        <v>-38700</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-33100</v>
+        <v>-33300</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
@@ -1231,19 +1231,19 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>1354500</v>
+        <v>1362600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>1077600</v>
+        <v>1084100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>1538100</v>
+        <v>1547400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1275,19 +1275,19 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>41400</v>
+        <v>41600</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>36700</v>
+        <v>37000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="3">
-        <v>36900</v>
+        <v>37100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1319,19 +1319,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>707500</v>
+        <v>711800</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>733100</v>
+        <v>737500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>888300</v>
+        <v>893700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
@@ -1363,19 +1363,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>95900</v>
+        <v>96500</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>161300</v>
+        <v>162200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>151600</v>
+        <v>152500</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
@@ -1451,19 +1451,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>611600</v>
+        <v>615300</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>571900</v>
+        <v>575300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>736700</v>
+        <v>741200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>5</v>
@@ -1495,19 +1495,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>530800</v>
+        <v>534000</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>483400</v>
+        <v>486300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>638800</v>
+        <v>642700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>5</v>
@@ -1583,19 +1583,19 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>78500</v>
+        <v>79000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>-1246400</v>
+        <v>-1253900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>-86500</v>
+        <v>-87000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1715,19 +1715,19 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
@@ -1759,19 +1759,19 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>609300</v>
+        <v>613000</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>-763100</v>
+        <v>-767700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>552300</v>
+        <v>555700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>5</v>
@@ -1847,19 +1847,19 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>609300</v>
+        <v>613000</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>-763100</v>
+        <v>-767700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
-        <v>552300</v>
+        <v>555700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>5</v>
@@ -1973,19 +1973,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1180600</v>
+        <v>1187700</v>
       </c>
       <c r="E41" s="3">
-        <v>1921700</v>
+        <v>1933300</v>
       </c>
       <c r="F41" s="3">
-        <v>1206800</v>
+        <v>1214100</v>
       </c>
       <c r="G41" s="3">
-        <v>1211400</v>
+        <v>1218700</v>
       </c>
       <c r="H41" s="3">
-        <v>1170500</v>
+        <v>1177500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
@@ -2061,19 +2061,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1126100</v>
+        <v>1132900</v>
       </c>
       <c r="E43" s="3">
-        <v>1591700</v>
+        <v>1601200</v>
       </c>
       <c r="F43" s="3">
-        <v>1191200</v>
+        <v>1198300</v>
       </c>
       <c r="G43" s="3">
-        <v>1564800</v>
+        <v>1574200</v>
       </c>
       <c r="H43" s="3">
-        <v>798500</v>
+        <v>803300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -2105,19 +2105,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>827000</v>
+        <v>832000</v>
       </c>
       <c r="E44" s="3">
-        <v>820600</v>
+        <v>825600</v>
       </c>
       <c r="F44" s="3">
-        <v>779700</v>
+        <v>784400</v>
       </c>
       <c r="G44" s="3">
-        <v>789000</v>
+        <v>793700</v>
       </c>
       <c r="H44" s="3">
-        <v>667200</v>
+        <v>671200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -2149,19 +2149,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1819700</v>
+        <v>1830700</v>
       </c>
       <c r="E45" s="3">
-        <v>2389700</v>
+        <v>2404100</v>
       </c>
       <c r="F45" s="3">
-        <v>134400</v>
+        <v>135200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>111200</v>
+        <v>111900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -2193,19 +2193,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4953400</v>
+        <v>4983200</v>
       </c>
       <c r="E46" s="3">
-        <v>6723700</v>
+        <v>6764100</v>
       </c>
       <c r="F46" s="3">
-        <v>3312000</v>
+        <v>3332000</v>
       </c>
       <c r="G46" s="3">
-        <v>3565100</v>
+        <v>3586600</v>
       </c>
       <c r="H46" s="3">
-        <v>2747400</v>
+        <v>2763900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
@@ -2237,19 +2237,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>934200</v>
+        <v>939800</v>
       </c>
       <c r="E47" s="3">
-        <v>1136600</v>
+        <v>1143500</v>
       </c>
       <c r="F47" s="3">
-        <v>903500</v>
+        <v>908900</v>
       </c>
       <c r="G47" s="3">
-        <v>980400</v>
+        <v>986300</v>
       </c>
       <c r="H47" s="3">
-        <v>823400</v>
+        <v>828300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -2281,19 +2281,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3424700</v>
+        <v>3445300</v>
       </c>
       <c r="E48" s="3">
-        <v>3423200</v>
+        <v>3443800</v>
       </c>
       <c r="F48" s="3">
-        <v>3854100</v>
+        <v>3877300</v>
       </c>
       <c r="G48" s="3">
-        <v>3863100</v>
+        <v>3886300</v>
       </c>
       <c r="H48" s="3">
-        <v>3803600</v>
+        <v>3826500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -2325,19 +2325,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7119100</v>
+        <v>7161900</v>
       </c>
       <c r="E49" s="3">
-        <v>7267400</v>
+        <v>7311100</v>
       </c>
       <c r="F49" s="3">
-        <v>9903500</v>
+        <v>9963100</v>
       </c>
       <c r="G49" s="3">
-        <v>9822700</v>
+        <v>9881800</v>
       </c>
       <c r="H49" s="3">
-        <v>9554400</v>
+        <v>9611900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2457,19 +2457,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>250400</v>
+        <v>251900</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>305600</v>
+        <v>307400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>255600</v>
+        <v>257100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -2545,19 +2545,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16681800</v>
+        <v>16782100</v>
       </c>
       <c r="E54" s="3">
-        <v>18551000</v>
+        <v>18662600</v>
       </c>
       <c r="F54" s="3">
-        <v>18278800</v>
+        <v>18388700</v>
       </c>
       <c r="G54" s="3">
-        <v>18231300</v>
+        <v>18341000</v>
       </c>
       <c r="H54" s="3">
-        <v>17184400</v>
+        <v>17287700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
@@ -2625,19 +2625,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3169900</v>
+        <v>3188900</v>
       </c>
       <c r="E57" s="3">
-        <v>3525100</v>
+        <v>3546300</v>
       </c>
       <c r="F57" s="3">
-        <v>2985500</v>
+        <v>3003400</v>
       </c>
       <c r="G57" s="3">
-        <v>3099400</v>
+        <v>3118100</v>
       </c>
       <c r="H57" s="3">
-        <v>2400600</v>
+        <v>2415000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2669,19 +2669,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>836100</v>
+        <v>841100</v>
       </c>
       <c r="E58" s="3">
-        <v>1449000</v>
+        <v>1457800</v>
       </c>
       <c r="F58" s="3">
-        <v>891900</v>
+        <v>897300</v>
       </c>
       <c r="G58" s="3">
-        <v>239200</v>
+        <v>240700</v>
       </c>
       <c r="H58" s="3">
-        <v>138700</v>
+        <v>139500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2713,19 +2713,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3044300</v>
+        <v>3062600</v>
       </c>
       <c r="E59" s="3">
-        <v>3437000</v>
+        <v>3457700</v>
       </c>
       <c r="F59" s="3">
-        <v>2382500</v>
+        <v>2396800</v>
       </c>
       <c r="G59" s="3">
-        <v>1874300</v>
+        <v>1885500</v>
       </c>
       <c r="H59" s="3">
-        <v>1575300</v>
+        <v>1584800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -2757,19 +2757,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7050300</v>
+        <v>7092700</v>
       </c>
       <c r="E60" s="3">
-        <v>8411100</v>
+        <v>8461700</v>
       </c>
       <c r="F60" s="3">
-        <v>6259900</v>
+        <v>6297500</v>
       </c>
       <c r="G60" s="3">
-        <v>5212900</v>
+        <v>5244300</v>
       </c>
       <c r="H60" s="3">
-        <v>4114600</v>
+        <v>4139300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
@@ -2801,19 +2801,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3307000</v>
+        <v>3326900</v>
       </c>
       <c r="E61" s="3">
-        <v>3283800</v>
+        <v>3303600</v>
       </c>
       <c r="F61" s="3">
-        <v>3291100</v>
+        <v>3310900</v>
       </c>
       <c r="G61" s="3">
-        <v>4106900</v>
+        <v>4131600</v>
       </c>
       <c r="H61" s="3">
-        <v>4236400</v>
+        <v>4261800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1302700</v>
+        <v>1310500</v>
       </c>
       <c r="E62" s="3">
-        <v>1402800</v>
+        <v>1411200</v>
       </c>
       <c r="F62" s="3">
-        <v>1676300</v>
+        <v>1686300</v>
       </c>
       <c r="G62" s="3">
-        <v>2380300</v>
+        <v>2394600</v>
       </c>
       <c r="H62" s="3">
-        <v>2562000</v>
+        <v>2577400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -3021,19 +3021,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12067800</v>
+        <v>12140400</v>
       </c>
       <c r="E66" s="3">
-        <v>13718600</v>
+        <v>13801100</v>
       </c>
       <c r="F66" s="3">
-        <v>11923600</v>
+        <v>11995300</v>
       </c>
       <c r="G66" s="3">
-        <v>12332000</v>
+        <v>12406200</v>
       </c>
       <c r="H66" s="3">
-        <v>11499200</v>
+        <v>11568400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
@@ -3259,19 +3259,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10236300</v>
+        <v>10297900</v>
       </c>
       <c r="E72" s="3">
-        <v>9914000</v>
+        <v>9973600</v>
       </c>
       <c r="F72" s="3">
-        <v>11404500</v>
+        <v>11473100</v>
       </c>
       <c r="G72" s="3">
-        <v>11176700</v>
+        <v>11243900</v>
       </c>
       <c r="H72" s="3">
-        <v>11161000</v>
+        <v>11228100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -3435,19 +3435,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4614000</v>
+        <v>4641700</v>
       </c>
       <c r="E76" s="3">
-        <v>4832400</v>
+        <v>4861400</v>
       </c>
       <c r="F76" s="3">
-        <v>6355200</v>
+        <v>6393400</v>
       </c>
       <c r="G76" s="3">
-        <v>5899300</v>
+        <v>5934800</v>
       </c>
       <c r="H76" s="3">
-        <v>5685100</v>
+        <v>5719300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
@@ -3575,19 +3575,19 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>609300</v>
+        <v>613000</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>-763100</v>
+        <v>-767700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
-        <v>552300</v>
+        <v>555700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>5</v>
@@ -3637,19 +3637,19 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>605600</v>
+        <v>609200</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>307800</v>
+        <v>309600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>667000</v>
+        <v>671000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -3901,19 +3901,19 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>1872800</v>
+        <v>1884100</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>1212000</v>
+        <v>1219300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>1917600</v>
+        <v>1929200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
@@ -4095,19 +4095,19 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-443300</v>
+        <v>-446000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>-157100</v>
+        <v>-158000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>-588200</v>
+        <v>-591700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
@@ -4157,19 +4157,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-490200</v>
+        <v>-493100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-490200</v>
+        <v>-493100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-460900</v>
+        <v>-463700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4333,19 +4333,19 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>-1440400</v>
+        <v>-1449000</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-325100</v>
+        <v>-327100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>-1293700</v>
+        <v>-1301500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -4377,19 +4377,19 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>-98800</v>
+        <v>-99400</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>56600</v>
+        <v>56900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>66200</v>
+        <v>66600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -4421,19 +4421,19 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>-109600</v>
+        <v>-110300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>786400</v>
+        <v>791100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>55800</v>
+        <v>56200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CABGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="92">
   <si>
     <t>CABGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,132 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2386900</v>
+        <v>2953200</v>
       </c>
       <c r="E8" s="3">
-        <v>5066000</v>
+        <v>5498900</v>
       </c>
       <c r="F8" s="3">
-        <v>2944600</v>
+        <v>2387300</v>
       </c>
       <c r="G8" s="3">
-        <v>5157500</v>
+        <v>5066700</v>
       </c>
       <c r="H8" s="3">
-        <v>2173200</v>
+        <v>2945000</v>
       </c>
       <c r="I8" s="3">
+        <v>5158200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2173500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4572300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2586000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4077200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1620100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3984500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2407800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4229100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1899000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,43 +798,49 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>2786600</v>
+        <v>3042200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>2771200</v>
+        <v>2787000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="3">
+        <v>2771600</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>2415700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>2122300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>2061000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2172800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,43 +848,49 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>2279400</v>
+        <v>2456700</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>2386300</v>
+        <v>2279700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="3">
+        <v>2386700</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2156600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1954800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1923500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2056300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,43 +1018,49 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>-10000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>124100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-34900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>28200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>38500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1124,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1135,49 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>4324400</v>
+        <v>4610800</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>4344300</v>
+        <v>4325000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>4344900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>3608300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>3427400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>3341200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3553900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1185,49 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>741600</v>
+        <v>888100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>813200</v>
+        <v>741700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
+        <v>813300</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>964100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>649700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>643300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>675200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,87 +1255,99 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
         <v>11800</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-38700</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-33300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>13400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>5300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
-        <v>1362600</v>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>1084100</v>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
+        <v>1084300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1547400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>926400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1244900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1000600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,43 +1355,49 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
         <v>41600</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>37000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>37100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>36000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>34900</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>34500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,43 +1405,49 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>711800</v>
+        <v>839800</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>737500</v>
+        <v>711900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
+        <v>737600</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>893700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>612200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>621900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>646000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,43 +1455,49 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
+        <v>176400</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
         <v>96500</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>162200</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
+        <v>162300</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>152500</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>157300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>145900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>168000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1540,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,43 +1555,49 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>615300</v>
+        <v>663400</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>575300</v>
+        <v>615400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
+        <v>575400</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>741200</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>454900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>476000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>478100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,43 +1605,49 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>534000</v>
+        <v>567400</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
+        <v>534100</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
         <v>486300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>642700</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>385800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>425800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>418800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1583,43 +1705,49 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>79000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-1253900</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3">
+        <v>-1254100</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-87000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>44700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,43 +1855,49 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
         <v>-11800</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>38700</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>33300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-13400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-5300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,43 +1905,49 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>613000</v>
+        <v>508600</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>-767700</v>
+        <v>613100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
+        <v>-767800</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>555700</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>430400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>425800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>418800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1990,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,92 +2005,104 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>613000</v>
+        <v>508600</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>-767700</v>
+        <v>613100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
+        <v>-767800</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>555700</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>430400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>425800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>418800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,25 +2139,27 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1187700</v>
+        <v>1635200</v>
       </c>
       <c r="E41" s="3">
-        <v>1933300</v>
+        <v>1187900</v>
       </c>
       <c r="F41" s="3">
-        <v>1214100</v>
+        <v>1933500</v>
       </c>
       <c r="G41" s="3">
-        <v>1218700</v>
+        <v>1214200</v>
       </c>
       <c r="H41" s="3">
-        <v>1177500</v>
+        <v>1218900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
@@ -2011,8 +2185,14 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,25 +2235,31 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1132900</v>
+        <v>1785100</v>
       </c>
       <c r="E43" s="3">
-        <v>1601200</v>
+        <v>1133000</v>
       </c>
       <c r="F43" s="3">
-        <v>1198300</v>
+        <v>1601400</v>
       </c>
       <c r="G43" s="3">
-        <v>1574200</v>
+        <v>1198500</v>
       </c>
       <c r="H43" s="3">
-        <v>803300</v>
+        <v>1574400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -2099,25 +2285,31 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>832000</v>
+        <v>975000</v>
       </c>
       <c r="E44" s="3">
-        <v>825600</v>
+        <v>832100</v>
       </c>
       <c r="F44" s="3">
-        <v>784400</v>
+        <v>825700</v>
       </c>
       <c r="G44" s="3">
-        <v>793700</v>
+        <v>784500</v>
       </c>
       <c r="H44" s="3">
-        <v>671200</v>
+        <v>793800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -2143,25 +2335,31 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1830700</v>
+        <v>1467600</v>
       </c>
       <c r="E45" s="3">
-        <v>2404100</v>
+        <v>1830900</v>
       </c>
       <c r="F45" s="3">
+        <v>2404400</v>
+      </c>
+      <c r="G45" s="3">
         <v>135200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>111900</v>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -2187,25 +2385,31 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4983200</v>
+        <v>5862900</v>
       </c>
       <c r="E46" s="3">
-        <v>6764100</v>
+        <v>4983900</v>
       </c>
       <c r="F46" s="3">
-        <v>3332000</v>
+        <v>6765100</v>
       </c>
       <c r="G46" s="3">
-        <v>3586600</v>
+        <v>3332400</v>
       </c>
       <c r="H46" s="3">
-        <v>2763900</v>
+        <v>3587100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
@@ -2231,25 +2435,31 @@
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>939800</v>
+        <v>1178300</v>
       </c>
       <c r="E47" s="3">
-        <v>1143500</v>
+        <v>939900</v>
       </c>
       <c r="F47" s="3">
-        <v>908900</v>
+        <v>1143600</v>
       </c>
       <c r="G47" s="3">
-        <v>986300</v>
+        <v>909100</v>
       </c>
       <c r="H47" s="3">
-        <v>828300</v>
+        <v>986500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -2275,25 +2485,31 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3445300</v>
+        <v>3433000</v>
       </c>
       <c r="E48" s="3">
-        <v>3443800</v>
+        <v>3445800</v>
       </c>
       <c r="F48" s="3">
-        <v>3877300</v>
+        <v>3444300</v>
       </c>
       <c r="G48" s="3">
-        <v>3886300</v>
+        <v>3877800</v>
       </c>
       <c r="H48" s="3">
-        <v>3826500</v>
+        <v>3886800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -2319,25 +2535,31 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7161900</v>
+        <v>7134700</v>
       </c>
       <c r="E49" s="3">
-        <v>7311100</v>
+        <v>7162900</v>
       </c>
       <c r="F49" s="3">
-        <v>9963100</v>
+        <v>7312100</v>
       </c>
       <c r="G49" s="3">
-        <v>9881800</v>
+        <v>9964500</v>
       </c>
       <c r="H49" s="3">
-        <v>9611900</v>
+        <v>9883100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,25 +2685,31 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>251900</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>307400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>257100</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>307500</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,25 +2785,31 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16782100</v>
+        <v>17608800</v>
       </c>
       <c r="E54" s="3">
-        <v>18662600</v>
+        <v>16784400</v>
       </c>
       <c r="F54" s="3">
-        <v>18388700</v>
+        <v>18665100</v>
       </c>
       <c r="G54" s="3">
-        <v>18341000</v>
+        <v>18391300</v>
       </c>
       <c r="H54" s="3">
-        <v>17287700</v>
+        <v>18343500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,25 +2879,27 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3188900</v>
+        <v>3645900</v>
       </c>
       <c r="E57" s="3">
-        <v>3546300</v>
+        <v>3189400</v>
       </c>
       <c r="F57" s="3">
-        <v>3003400</v>
+        <v>3546800</v>
       </c>
       <c r="G57" s="3">
-        <v>3118100</v>
+        <v>3003800</v>
       </c>
       <c r="H57" s="3">
-        <v>2415000</v>
+        <v>3118500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2663,26 +2925,32 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>841100</v>
+        <v>1982000</v>
       </c>
       <c r="E58" s="3">
-        <v>1457800</v>
+        <v>841300</v>
       </c>
       <c r="F58" s="3">
-        <v>897300</v>
+        <v>1458000</v>
       </c>
       <c r="G58" s="3">
+        <v>897400</v>
+      </c>
+      <c r="H58" s="3">
         <v>240700</v>
       </c>
-      <c r="H58" s="3">
-        <v>139500</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2707,25 +2975,31 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3062600</v>
+        <v>3208300</v>
       </c>
       <c r="E59" s="3">
-        <v>3457700</v>
+        <v>3063100</v>
       </c>
       <c r="F59" s="3">
-        <v>2396800</v>
+        <v>3458100</v>
       </c>
       <c r="G59" s="3">
-        <v>1885500</v>
+        <v>2397200</v>
       </c>
       <c r="H59" s="3">
-        <v>1584800</v>
+        <v>1885800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -2751,25 +3025,31 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7092700</v>
+        <v>8836100</v>
       </c>
       <c r="E60" s="3">
-        <v>8461700</v>
+        <v>7093700</v>
       </c>
       <c r="F60" s="3">
-        <v>6297500</v>
+        <v>8462900</v>
       </c>
       <c r="G60" s="3">
-        <v>5244300</v>
+        <v>6298400</v>
       </c>
       <c r="H60" s="3">
-        <v>4139300</v>
+        <v>5245000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
@@ -2795,25 +3075,31 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3326900</v>
+        <v>3081400</v>
       </c>
       <c r="E61" s="3">
-        <v>3303600</v>
+        <v>3327300</v>
       </c>
       <c r="F61" s="3">
-        <v>3310900</v>
+        <v>3304000</v>
       </c>
       <c r="G61" s="3">
-        <v>4131600</v>
+        <v>3311300</v>
       </c>
       <c r="H61" s="3">
-        <v>4261800</v>
+        <v>4132200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2839,25 +3125,31 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1310500</v>
+        <v>1221600</v>
       </c>
       <c r="E62" s="3">
-        <v>1411200</v>
+        <v>1310700</v>
       </c>
       <c r="F62" s="3">
-        <v>1686300</v>
+        <v>1411400</v>
       </c>
       <c r="G62" s="3">
-        <v>2394600</v>
+        <v>1686600</v>
       </c>
       <c r="H62" s="3">
-        <v>2577400</v>
+        <v>2395000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,25 +3325,31 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12140400</v>
+        <v>13492600</v>
       </c>
       <c r="E66" s="3">
-        <v>13801100</v>
+        <v>12142000</v>
       </c>
       <c r="F66" s="3">
-        <v>11995300</v>
+        <v>13803000</v>
       </c>
       <c r="G66" s="3">
-        <v>12406200</v>
+        <v>11997000</v>
       </c>
       <c r="H66" s="3">
-        <v>11568400</v>
+        <v>12407900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,25 +3595,31 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10297900</v>
+        <v>10110400</v>
       </c>
       <c r="E72" s="3">
-        <v>9973600</v>
+        <v>10299300</v>
       </c>
       <c r="F72" s="3">
-        <v>11473100</v>
+        <v>9975000</v>
       </c>
       <c r="G72" s="3">
-        <v>11243900</v>
+        <v>11474700</v>
       </c>
       <c r="H72" s="3">
-        <v>11228100</v>
+        <v>11245500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,25 +3795,31 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4641700</v>
+        <v>4116200</v>
       </c>
       <c r="E76" s="3">
-        <v>4861400</v>
+        <v>4642400</v>
       </c>
       <c r="F76" s="3">
-        <v>6393400</v>
+        <v>4862100</v>
       </c>
       <c r="G76" s="3">
-        <v>5934800</v>
+        <v>6394300</v>
       </c>
       <c r="H76" s="3">
-        <v>5719300</v>
+        <v>5935600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3895,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,43 +3965,49 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>613000</v>
+        <v>508600</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>-767700</v>
+        <v>613100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
+        <v>-767800</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>555700</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>430400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>425800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>418800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3">
-        <v>609200</v>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3">
-        <v>309600</v>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
+        <v>309700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>671000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>303500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>588200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>320100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3">
-        <v>1884100</v>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3">
-        <v>1219300</v>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3">
+        <v>1219500</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1929200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>950500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1465600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>749900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,23 +4394,25 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1792000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2412000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1606000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2244000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1659000</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3981,25 +4423,31 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-235900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-589500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-363900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
-        <v>-446000</v>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>-158000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-591700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-179600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-787400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-289100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4625,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-493100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-493100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-493200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-463700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-453200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-414800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-453700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3">
-        <v>-1449000</v>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>-327100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1301500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-713100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-242700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-73200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="3">
-        <v>-99400</v>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
         <v>56900</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>66600</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>22600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-58700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-16700</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3">
-        <v>-110300</v>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3">
-        <v>791100</v>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
+        <v>791200</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>56200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>59400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>376700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>370800</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
